--- a/app/data/absenteeism_data_17.xlsx
+++ b/app/data/absenteeism_data_17.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93963</v>
+        <v>9776</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Eduarda Santos</t>
+          <t>Arthur das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>8149.99</v>
+        <v>4287.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4157</v>
+        <v>18180</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kamilly Cardoso</t>
+          <t>Theo Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>10747.83</v>
+        <v>8414.719999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97991</v>
+        <v>43768</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Natália Ferreira</t>
+          <t>Maria Luiza Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>3059.06</v>
+        <v>10456.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2159</v>
+        <v>84237</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Laura da Paz</t>
+          <t>Nina Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>12454.61</v>
+        <v>3553.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12351</v>
+        <v>13039</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stephany Pereira</t>
+          <t>Maria Clara Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>11616.96</v>
+        <v>9818.139999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16620</v>
+        <v>29096</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isaac Araújo</t>
+          <t>Caroline Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>8162.96</v>
+        <v>4872.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33949</v>
+        <v>43354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nathan Viana</t>
+          <t>Maria Eduarda Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>8150.38</v>
+        <v>12213.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89007</v>
+        <v>93774</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Dias</t>
+          <t>Benjamin Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>8455.68</v>
+        <v>11423.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23782</v>
+        <v>95453</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiza Melo</t>
+          <t>Luna Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>6848.57</v>
+        <v>9639.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44143</v>
+        <v>47884</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Peixoto</t>
+          <t>Maria Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>8168.34</v>
+        <v>12058.52</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_17.xlsx
+++ b/app/data/absenteeism_data_17.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62324</v>
+        <v>29670</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laura Freitas</t>
+          <t>Maria Sophia Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>5076.4</v>
+        <v>5656.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62385</v>
+        <v>29857</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Davi Lucas Monteiro</t>
+          <t>Vitor Gabriel Ferreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,205 +519,205 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>7722.01</v>
+        <v>7438.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93137</v>
+        <v>6286</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fernanda Correia</t>
+          <t>Carlos Eduardo Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>7989.81</v>
+        <v>8459.780000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92317</v>
+        <v>76230</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yago Monteiro</t>
+          <t>Anthony Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>6335.05</v>
+        <v>4155.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86726</v>
+        <v>75530</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thomas Ramos</t>
+          <t>Sabrina Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>8968.139999999999</v>
+        <v>2961.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52541</v>
+        <v>95331</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana Barros</t>
+          <t>Dr. Pietro Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>5479.39</v>
+        <v>10113.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7447</v>
+        <v>54693</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isadora Fogaça</t>
+          <t>Vicente Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>9003.34</v>
+        <v>3815.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72849</v>
+        <v>61685</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samuel Mendes</t>
+          <t>Giovanna Cavalcanti</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>9458.09</v>
+        <v>8787.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45937</v>
+        <v>87873</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucca da Cruz</t>
+          <t>Thomas Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>4144.46</v>
+        <v>6260.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59521</v>
+        <v>24932</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sophia Vieira</t>
+          <t>Maria Fernanda Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>6805.53</v>
+        <v>5029.77</v>
       </c>
     </row>
   </sheetData>
